--- a/DONE/DONE ENCODING/BAY, AMIE.xlsx
+++ b/DONE/DONE ENCODING/BAY, AMIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\DONE ENCODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -627,9 +627,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -639,17 +636,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,27 +854,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1095,27 +1095,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1180,7 +1180,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1413,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1698,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1741,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1816,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2002,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2068,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2126,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2248,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2432,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,25 +2584,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2614,25 +2614,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2964,8 +2964,8 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
+      <pane ySplit="3690" topLeftCell="A58"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -2988,64 +2988,66 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58">
+        <v>42020</v>
+      </c>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3078,18 +3080,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5393,17 +5395,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5463,64 +5465,64 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5553,18 +5555,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
